--- a/static/inputData/Cleaning_room_report_07_03_2022.xlsx
+++ b/static/inputData/Cleaning_room_report_07_03_2022.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>ANNEXURE - I</t>
   </si>
@@ -31,6 +31,27 @@
   </si>
   <si>
     <t>Equipment</t>
+  </si>
+  <si>
+    <t>Manufacturing Scoop</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Blender Bin (350 liter)</t>
+  </si>
+  <si>
+    <t>Spatula</t>
+  </si>
+  <si>
+    <t>ANNEXURE - II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Details </t>
   </si>
   <si>
     <t>Product_Name</t>
@@ -122,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -147,6 +168,30 @@
         <bgColor rgb="00ff99ff"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0066ccff"/>
+        <bgColor rgb="0066ccff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00669999"/>
+        <bgColor rgb="00669999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003399ff"/>
+        <bgColor rgb="003399ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffcc99"/>
+        <bgColor rgb="00ffcc99"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -160,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +216,10 @@
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -468,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,20 +541,70 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" t="n">
+      <c r="B7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -523,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B6:J14"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,265 +630,282 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="2" spans="1:10">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="6" spans="1:10">
-      <c r="C6" t="s">
+      <c r="B6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>600000</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>800</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>600000</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>800</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>400000</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>800</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>800</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>400000</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>800</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>400000</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>800</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>900</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>60000</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>906565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="n">
-        <v>200</v>
-      </c>
-      <c r="G7" t="n">
-        <v>600000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>800</v>
-      </c>
-      <c r="J7" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>600000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>800</v>
-      </c>
-      <c r="J8" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="n">
-        <v>600</v>
-      </c>
-      <c r="G9" t="n">
-        <v>400000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>800</v>
-      </c>
-      <c r="J9" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="n">
-        <v>800</v>
-      </c>
-      <c r="G10" t="n">
-        <v>400000</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>800</v>
-      </c>
-      <c r="J10" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>400000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>800</v>
-      </c>
-      <c r="J11" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="F13" s="6" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>60000</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="6" t="n">
         <v>900</v>
       </c>
-      <c r="J12" t="n">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>60000</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I13" t="n">
-        <v>600</v>
-      </c>
-      <c r="J13" t="n">
-        <v>906565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G14" t="n">
-        <v>60000</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>900</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="J13" s="6" t="n">
         <v>9000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J4"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>